--- a/POSCON.MECH.ECO.xlsx
+++ b/POSCON.MECH.ECO.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="18195" windowHeight="8250"/>
+    <workbookView xWindow="480" yWindow="140" windowWidth="18200" windowHeight="8260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -42,10 +45,10 @@
     <t>FACE Change</t>
   </si>
   <si>
-    <t>Marc Levinson</t>
-  </si>
-  <si>
     <t>First production version of new POSCON FACE and BACK plates</t>
+  </si>
+  <si>
+    <t>Rafael Send</t>
   </si>
 </sst>
 </file>
@@ -397,20 +400,20 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -430,7 +433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -441,10 +444,10 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
       <c r="F2" s="2">
         <v>41925</v>
@@ -452,30 +455,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/POSCON.MECH.ECO.xlsx
+++ b/POSCON.MECH.ECO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Who</t>
   </si>
@@ -49,13 +49,25 @@
   </si>
   <si>
     <t>Rafael Send</t>
+  </si>
+  <si>
+    <t>POSCON.MECH.v1.1</t>
+  </si>
+  <si>
+    <t>Fixed Stud Size</t>
+  </si>
+  <si>
+    <t>First Production version of new POSCON, Updated to correct stud size.</t>
+  </si>
+  <si>
+    <t>Marc Levinson</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +79,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -89,15 +117,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -397,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -453,8 +485,29 @@
         <v>41925</v>
       </c>
     </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2">
+        <v>41927</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
